--- a/biology/Zoologie/Castillane_(insecte)/Castillane_(insecte).xlsx
+++ b/biology/Zoologie/Castillane_(insecte)/Castillane_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichiura castiliana
 La Castillane (Trichiura castiliana) est une espèce de lépidoptères appartenant à la famille des Lasiocampidae.
@@ -516,9 +528,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 aout 2019)[1], il existe 2 sous-espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 aout 2019), il existe 2 sous-espèces :
 Trichiura castiliana castiliana (Spuler, 1908)
 Trichiura castiliana moghrebana Rungs, 1949</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>P.C. Rougeot, P. Viette, Guide des papillons nocturnes d'Europe et d'Afrique du Nord, Delachaux et Niestlé, Lausanne 1978.</t>
         </is>
